--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS129-001 - Kepesertaan - Transaksi - Penarikan Iuran 10%.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS129-001 - Kepesertaan - Transaksi - Penarikan Iuran 10%.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE240383-192F-4E39-A0AB-95E63CAEAD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8A25DD-3063-4043-B8C0-4580A46605B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -73,9 +73,6 @@
     <t>ROLE</t>
   </si>
   <si>
-    <t>1 : Lanjutkan ke Verifikasi</t>
-  </si>
-  <si>
     <t>Teller</t>
   </si>
   <si>
@@ -98,6 +95,12 @@
   </si>
   <si>
     <t>Hitungan Dana, Pajak, Biaya benar</t>
+  </si>
+  <si>
+    <t>Penarikan Iuran 10% Paket 13 - Register Penarikan Iuran 10%</t>
+  </si>
+  <si>
+    <t>791312293</t>
   </si>
   <si>
     <t>Username : 35110;
@@ -105,14 +108,8 @@
 Role : 39 - Teller;
 Keterangan Perubahan : KEP.TRX.295;
 Nomor Peserta : 790567900;
-Status Register : 1 : Lanjutkan ke Verifikasi;
+Status Register : 1;
 Keterangan Regsiter : KEP.TRX.295</t>
-  </si>
-  <si>
-    <t>Penarikan Iuran 10% Paket 13 - Register Penarikan Iuran 10%</t>
-  </si>
-  <si>
-    <t>791312293</t>
   </si>
 </sst>
 </file>
@@ -173,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -207,9 +204,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
@@ -600,24 +594,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="4">
         <v>35110</v>
@@ -626,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
@@ -635,19 +629,19 @@
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="7"/>
